--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,16 +463,16 @@
         <v>471689376</v>
       </c>
       <c r="B2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>6.899999999999999</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -481,7 +481,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>AgACAgIAAxkBAAMGZ1vun5wOu6Vei32mAWyKQwmonDIAAivmMRuOueBKXGTvqgZOFyMBAAMCAAN5AAM2BA</t>
+          <t>AgACAgIAAxkBAAIBpGeEK__25xZH_CXesZXhXI4wE5ljAAJ77zEbdmYgSCas4Ztcf5LlAQADAgADeAADNgQ</t>
         </is>
       </c>
     </row>
@@ -490,16 +490,16 @@
         <v>471689376</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -508,25 +508,25 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>AgACAgIAAxkBAAMGZ1vun5wOu6Vei32mAWyKQwmonDIAAivmMRuOueBKXGTvqgZOFyMBAAMCAAN5AAM2BA</t>
+          <t>AgACAgIAAxkBAAIBpGeEK__25xZH_CXesZXhXI4wE5ljAAJ77zEbdmYgSCas4Ztcf5LlAQADAgADeAADNgQ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7216585762</v>
+        <v>471689376</v>
       </c>
       <c r="B4" t="n">
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -535,25 +535,25 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>AgACAgUAAxkBAAMpZ1xLp_ajy4H8o8GpytLtb1gm0vkAAtTCMRsU7eBW0jNdGalFE6UBAAMCAAN5AAM2BA</t>
+          <t>AgACAgIAAxkBAAIBpGeEK__25xZH_CXesZXhXI4wE5ljAAJ77zEbdmYgSCas4Ztcf5LlAQADAgADeAADNgQ</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7216585762</v>
+        <v>7759926757</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -562,25 +562,25 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>AgACAgUAAxkBAAMpZ1xLp_ajy4H8o8GpytLtb1gm0vkAAtTCMRsU7eBW0jNdGalFE6UBAAMCAAN5AAM2BA</t>
+          <t>AgACAgQAAxkBAAICR2eEPhb3XtSCg1YWNUZcQpkVC6L2AAKPxjEbBPkgUEZHjvQoX_xoAQADAgADeAADNgQ</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7216585762</v>
+        <v>7759926757</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -589,88 +589,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>AgACAgUAAxkBAAMpZ1xLp_ajy4H8o8GpytLtb1gm0vkAAtTCMRsU7eBW0jNdGalFE6UBAAMCAAN5AAM2BA</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>471689376</v>
-      </c>
-      <c r="B7" t="n">
-        <v>20</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>AgACAgIAAxkBAANXZ1_JlNuLWWTNVi0AARb7xOVjVKYwAAI76jEb-h75SlPyMpackE9KAQADAgADeQADNgQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>471689376</v>
-      </c>
-      <c r="B8" t="n">
-        <v>200</v>
-      </c>
-      <c r="C8" t="n">
-        <v>60</v>
-      </c>
-      <c r="D8" t="n">
-        <v>30</v>
-      </c>
-      <c r="E8" t="n">
-        <v>30</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>AgACAgIAAxkBAANmZ2Ml5x94rsLVVIlDLHlcxB_Uz_oAAlHmMRtWcCBLO10MoupK0-sBAAMCAAN4AAM2BA</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>471689376</v>
-      </c>
-      <c r="B9" t="n">
-        <v>50</v>
-      </c>
-      <c r="C9" t="n">
-        <v>15</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>AgACAgIAAxkBAANvZ2MmWNpERenYPHBrpqgQ1ZyUvssAAlTmMRtWcCBL0CS6fvjHDZoBAAMCAAN4AAM2BA</t>
+          <t>AgACAgQAAxkBAAICR2eEPhb3XtSCg1YWNUZcQpkVC6L2AAKPxjEbBPkgUEZHjvQoX_xoAQADAgADeAADNgQ</t>
         </is>
       </c>
     </row>
